--- a/实验报告/02 测试用例/测试标准-蔡兆炫/测试标准功能.xlsx
+++ b/实验报告/02 测试用例/测试标准-蔡兆炫/测试标准功能.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\Study\University\20252026a\软件测试课程设计\github\实验报告\02 测试用例\测试标准\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\Study\University\20252026a\软件测试课程设计\github\实验报告\02 测试用例\测试标准-蔡兆炫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CA2512-0A57-429F-AB9C-3E7001461AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9A2B1-4718-4FFA-87B0-5EC461CC6560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{46A138A7-270B-46AE-A94C-B74E579437DD}"/>
   </bookViews>
@@ -986,7 +986,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1032,6 +1032,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1125,10 +1132,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1172,8 +1180,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1199,15 +1207,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1500,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5647AE-CB45-4678-96AA-4E172626ADC2}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1638,10 +1650,10 @@
       <c r="A9" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1659,8 +1671,8 @@
       <c r="A10" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="13" t="s">
         <v>50</v>
       </c>
@@ -1679,7 +1691,7 @@
       <c r="B11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="13" t="s">
         <v>69</v>
       </c>
@@ -1695,10 +1707,10 @@
       <c r="A12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="24" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1716,8 +1728,8 @@
       <c r="A13" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="13" t="s">
         <v>77</v>
       </c>
@@ -1736,7 +1748,7 @@
       <c r="B14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="13" t="s">
         <v>196</v>
       </c>
@@ -1755,7 +1767,7 @@
       <c r="B15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="13" t="s">
         <v>197</v>
       </c>
@@ -1774,7 +1786,7 @@
       <c r="B16" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="13" t="s">
         <v>86</v>
       </c>
@@ -1792,10 +1804,10 @@
       <c r="A17" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="13" t="s">
         <v>98</v>
       </c>
@@ -1811,8 +1823,8 @@
       <c r="A18" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="13" t="s">
         <v>99</v>
       </c>
@@ -1831,7 +1843,7 @@
       <c r="B19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="13" t="s">
         <v>105</v>
       </c>
@@ -1850,7 +1862,7 @@
       <c r="B20" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="13" t="s">
         <v>108</v>
       </c>
@@ -1869,13 +1881,13 @@
       <c r="B21" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="26" t="s">
         <v>116</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -1892,7 +1904,7 @@
       <c r="B22" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9" t="s">
         <v>118</v>
       </c>
@@ -2049,21 +2061,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C12:C20"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{8315F47F-1374-4607-842E-469968197DD3}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2072,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F87B08-DB19-4831-AD1E-62C8028B0D8B}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2194,13 +2209,13 @@
       <c r="A8" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -2217,9 +2232,9 @@
       <c r="A9" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
@@ -2234,9 +2249,9 @@
       <c r="A10" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
@@ -2251,9 +2266,9 @@
       <c r="A11" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
@@ -2268,9 +2283,9 @@
       <c r="A12" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="9" t="s">
         <v>26</v>
       </c>
@@ -2285,11 +2300,11 @@
       <c r="A13" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -2306,9 +2321,9 @@
       <c r="A14" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9" t="s">
         <v>37</v>
       </c>
@@ -2323,9 +2338,9 @@
       <c r="A15" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9" t="s">
         <v>23</v>
       </c>
@@ -2340,9 +2355,9 @@
       <c r="A16" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="9" t="s">
         <v>59</v>
       </c>
@@ -2357,9 +2372,9 @@
       <c r="A17" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9" t="s">
         <v>60</v>
       </c>
@@ -2374,9 +2389,9 @@
       <c r="A18" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="9" t="s">
         <v>62</v>
       </c>
@@ -2391,16 +2406,16 @@
       <c r="A19" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="15" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2408,8 +2423,8 @@
       <c r="A20" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="12" t="s">
         <v>220</v>
       </c>
@@ -2425,8 +2440,8 @@
       <c r="A21" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="12" t="s">
         <v>221</v>
       </c>
@@ -2442,11 +2457,11 @@
       <c r="A22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -2463,9 +2478,9 @@
       <c r="A23" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9" t="s">
         <v>37</v>
       </c>
@@ -2480,9 +2495,9 @@
       <c r="A24" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9" t="s">
         <v>23</v>
       </c>
@@ -2497,9 +2512,9 @@
       <c r="A25" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9" t="s">
         <v>59</v>
       </c>
@@ -2514,9 +2529,9 @@
       <c r="A26" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9" t="s">
         <v>60</v>
       </c>
@@ -2531,9 +2546,9 @@
       <c r="A27" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9" t="s">
         <v>62</v>
       </c>
@@ -2548,16 +2563,16 @@
       <c r="A28" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="15" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2565,8 +2580,8 @@
       <c r="A29" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="12" t="s">
         <v>220</v>
       </c>
@@ -2582,8 +2597,8 @@
       <c r="A30" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="12" t="s">
         <v>221</v>
       </c>
@@ -2599,11 +2614,11 @@
       <c r="A31" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -2620,9 +2635,9 @@
       <c r="A32" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="9" t="s">
         <v>37</v>
       </c>
@@ -2637,9 +2652,9 @@
       <c r="A33" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="9" t="s">
         <v>23</v>
       </c>
@@ -2654,9 +2669,9 @@
       <c r="A34" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="9" t="s">
         <v>59</v>
       </c>
@@ -2671,9 +2686,9 @@
       <c r="A35" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="9" t="s">
         <v>60</v>
       </c>
@@ -2688,9 +2703,9 @@
       <c r="A36" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="9" t="s">
         <v>62</v>
       </c>
@@ -2705,16 +2720,16 @@
       <c r="A37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="15" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2722,8 +2737,8 @@
       <c r="A38" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="12" t="s">
         <v>220</v>
       </c>
@@ -2739,8 +2754,8 @@
       <c r="A39" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="12" t="s">
         <v>221</v>
       </c>
@@ -2756,11 +2771,11 @@
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24" t="s">
         <v>57</v>
       </c>
       <c r="E40" s="9" t="s">
@@ -2777,9 +2792,9 @@
       <c r="A41" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="9" t="s">
         <v>37</v>
       </c>
@@ -2794,9 +2809,9 @@
       <c r="A42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="9" t="s">
         <v>23</v>
       </c>
@@ -2811,9 +2826,9 @@
       <c r="A43" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="9" t="s">
         <v>59</v>
       </c>
@@ -2828,9 +2843,9 @@
       <c r="A44" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="9" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +2860,9 @@
       <c r="A45" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="9" t="s">
         <v>62</v>
       </c>
@@ -2862,9 +2877,9 @@
       <c r="A46" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="10" t="s">
         <v>64</v>
       </c>
@@ -2879,8 +2894,8 @@
       <c r="A47" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="12" t="s">
         <v>220</v>
       </c>
@@ -2896,8 +2911,8 @@
       <c r="A48" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="12" t="s">
         <v>221</v>
       </c>
@@ -2916,7 +2931,7 @@
       <c r="B49" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="9" t="s">
         <v>71</v>
       </c>
@@ -2931,13 +2946,13 @@
       <c r="A50" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="24" t="s">
         <v>226</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -2954,9 +2969,9 @@
       <c r="A51" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="9" t="s">
         <v>23</v>
       </c>
@@ -2971,9 +2986,9 @@
       <c r="A52" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="9" t="s">
         <v>24</v>
       </c>
@@ -2988,9 +3003,9 @@
       <c r="A53" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="9" t="s">
         <v>25</v>
       </c>
@@ -3005,9 +3020,9 @@
       <c r="A54" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="9" t="s">
         <v>26</v>
       </c>
@@ -3022,11 +3037,11 @@
       <c r="A55" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
+      <c r="C55" s="24"/>
+      <c r="D55" s="24" t="s">
         <v>227</v>
       </c>
       <c r="E55" s="9" t="s">
@@ -3043,9 +3058,9 @@
       <c r="A56" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="9" t="s">
         <v>94</v>
       </c>
@@ -3060,10 +3075,10 @@
       <c r="A57" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="24"/>
       <c r="D57" s="14" t="s">
         <v>121</v>
       </c>
@@ -3078,8 +3093,8 @@
       <c r="A58" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="14" t="s">
         <v>123</v>
       </c>
@@ -3094,13 +3109,13 @@
       <c r="A59" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="24" t="s">
         <v>211</v>
       </c>
       <c r="E59" s="9" t="s">
@@ -3117,9 +3132,9 @@
       <c r="A60" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="9" t="s">
         <v>37</v>
       </c>
@@ -3134,9 +3149,9 @@
       <c r="A61" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="9" t="s">
         <v>23</v>
       </c>
@@ -3151,9 +3166,9 @@
       <c r="A62" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="9" t="s">
         <v>213</v>
       </c>
@@ -3168,9 +3183,9 @@
       <c r="A63" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="9" t="s">
         <v>217</v>
       </c>
@@ -3185,9 +3200,9 @@
       <c r="A64" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="10" t="s">
         <v>215</v>
       </c>
@@ -3202,11 +3217,11 @@
       <c r="A65" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15" t="s">
+      <c r="C65" s="24"/>
+      <c r="D65" s="24" t="s">
         <v>210</v>
       </c>
       <c r="E65" s="9" t="s">
@@ -3223,9 +3238,9 @@
       <c r="A66" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="9" t="s">
         <v>37</v>
       </c>
@@ -3240,9 +3255,9 @@
       <c r="A67" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="9" t="s">
         <v>23</v>
       </c>
@@ -3257,9 +3272,9 @@
       <c r="A68" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="9" t="s">
         <v>213</v>
       </c>
@@ -3274,9 +3289,9 @@
       <c r="A69" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="9" t="s">
         <v>214</v>
       </c>
@@ -3291,9 +3306,9 @@
       <c r="A70" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="10" t="s">
         <v>215</v>
       </c>
@@ -3308,13 +3323,13 @@
       <c r="A71" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="24" t="s">
         <v>211</v>
       </c>
       <c r="E71" s="9" t="s">
@@ -3331,9 +3346,9 @@
       <c r="A72" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="9" t="s">
         <v>37</v>
       </c>
@@ -3348,9 +3363,9 @@
       <c r="A73" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="9" t="s">
         <v>23</v>
       </c>
@@ -3365,9 +3380,9 @@
       <c r="A74" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="9" t="s">
         <v>213</v>
       </c>
@@ -3382,9 +3397,9 @@
       <c r="A75" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="9" t="s">
         <v>214</v>
       </c>
@@ -3399,9 +3414,9 @@
       <c r="A76" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="10" t="s">
         <v>215</v>
       </c>
@@ -3416,11 +3431,11 @@
       <c r="A77" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15" t="s">
+      <c r="C77" s="24"/>
+      <c r="D77" s="24" t="s">
         <v>210</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -3437,9 +3452,9 @@
       <c r="A78" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="9" t="s">
         <v>37</v>
       </c>
@@ -3454,9 +3469,9 @@
       <c r="A79" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="9" t="s">
         <v>23</v>
       </c>
@@ -3471,9 +3486,9 @@
       <c r="A80" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="9" t="s">
         <v>213</v>
       </c>
@@ -3488,9 +3503,9 @@
       <c r="A81" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="9" t="s">
         <v>214</v>
       </c>
@@ -3505,9 +3520,9 @@
       <c r="A82" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="10" t="s">
         <v>215</v>
       </c>
@@ -3520,23 +3535,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="C8:C49"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="D31:D37"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D59:D64"/>
     <mergeCell ref="D71:D76"/>
     <mergeCell ref="D65:D70"/>
     <mergeCell ref="D77:D82"/>
@@ -3552,6 +3550,23 @@
     <mergeCell ref="C71:C82"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="C8:C49"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="D31:D37"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3817,10 +3832,10 @@
       <c r="A8" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -3837,8 +3852,8 @@
       <c r="A9" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="9" t="s">
         <v>72</v>
       </c>
@@ -3856,7 +3871,7 @@
       <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>198</v>
       </c>
@@ -3874,7 +3889,7 @@
       <c r="B11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9" t="s">
         <v>103</v>
       </c>
@@ -3889,10 +3904,10 @@
       <c r="A12" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="24" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3909,8 +3924,8 @@
       <c r="A13" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="9" t="s">
         <v>259</v>
       </c>
@@ -3928,7 +3943,7 @@
       <c r="B14" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -3948,7 +3963,7 @@
       <c r="B15" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>261</v>
       </c>
@@ -3987,16 +4002,16 @@
     <row r="38" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
